--- a/results/ff_default/15x15/ff_default_15x15_True_2_500.xlsx
+++ b/results/ff_default/15x15/ff_default_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>308.98</v>
+        <v>221.864</v>
       </c>
       <c r="D2" t="n">
-        <v>308.98</v>
+        <v>221.864</v>
       </c>
       <c r="E2" t="n">
-        <v>0.59876</v>
+        <v>0.8634281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008189999999999999</v>
+        <v>0.02250744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008189999999999999</v>
+        <v>0.02250744</v>
       </c>
       <c r="H2" t="n">
-        <v>2.48085</v>
+        <v>4.961661459999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>83.83915261393119</v>
       </c>
       <c r="J2" t="n">
-        <v>93.67428</v>
+        <v>83.83915261393119</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.285033948210129</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.001083746862012455</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001083746862012455</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.796676182025739</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>221.864</v>
+        <v>308.98</v>
       </c>
       <c r="D3" t="n">
-        <v>221.864</v>
+        <v>308.98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.86343</v>
+        <v>0.59875896</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02251</v>
+        <v>0.008194459999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02251</v>
+        <v>0.008194459999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>4.96166</v>
+        <v>2.48084538</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>93.76809965561877</v>
       </c>
       <c r="J3" t="n">
-        <v>83.75527</v>
+        <v>93.76809965561877</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1873628341656144</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.001949715437949332</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001949715437949332</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8065002478611248</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>238.18</v>
       </c>
       <c r="E4" t="n">
-        <v>0.78331</v>
+        <v>0.78331358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04425</v>
+        <v>0.0442501</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02213</v>
+        <v>0.02212494</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6212</v>
+        <v>2.62119988</v>
       </c>
       <c r="I4" t="n">
+        <v>39.46020927760603</v>
+      </c>
+      <c r="J4" t="n">
+        <v>78.92041855521205</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2379316683238411</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0026279551912036</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001314125278234076</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8325841288956711</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.42073</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>322.986</v>
       </c>
       <c r="E5" t="n">
-        <v>0.56923</v>
+        <v>0.5692335799999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01419</v>
+        <v>0.01418536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00709</v>
+        <v>0.007092520000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.11637</v>
+        <v>1.11636568</v>
       </c>
       <c r="I5" t="n">
+        <v>47.08302899387928</v>
+      </c>
+      <c r="J5" t="n">
+        <v>94.16030017080719</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1696750924058965</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003521931298384607</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00176086972089019</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3387495214525125</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47.03592</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>84.136</v>
+        <v>62.008</v>
       </c>
       <c r="D6" t="n">
-        <v>336.366</v>
+        <v>248.024</v>
       </c>
       <c r="E6" t="n">
-        <v>0.54523</v>
+        <v>0.7404575800000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0225</v>
+        <v>0.08357519999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00562</v>
+        <v>0.02089374</v>
       </c>
       <c r="H6" t="n">
-        <v>0.46655</v>
+        <v>1.29277098</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>17.92558476531119</v>
       </c>
       <c r="J6" t="n">
-        <v>23.9524</v>
+        <v>71.70362783352721</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2431236364674606</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.003689096885643331</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0009222816376999364</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3663289897246257</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.008</v>
+        <v>84.136</v>
       </c>
       <c r="D7" t="n">
-        <v>248.024</v>
+        <v>336.366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.74046</v>
+        <v>0.5452307800000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08358</v>
+        <v>0.02249988</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02089</v>
+        <v>0.00562472</v>
       </c>
       <c r="H7" t="n">
-        <v>1.29277</v>
+        <v>0.46655192</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>23.97638918763528</v>
       </c>
       <c r="J7" t="n">
-        <v>17.90765</v>
+        <v>95.87289119731952</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1632305901340267</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.006792230707327537</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001698099999651857</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1780225400589816</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>268.168</v>
       </c>
       <c r="E8" t="n">
-        <v>0.68076</v>
+        <v>0.68076348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.12028</v>
+        <v>0.12028286</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02005</v>
+        <v>0.02004722</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8955</v>
+        <v>0.8954996200000001</v>
       </c>
       <c r="I8" t="n">
+        <v>11.92089760039899</v>
+      </c>
+      <c r="J8" t="n">
+        <v>71.51884833618806</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2354337352191654</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.007124428467067708</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.00118737128681196</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2418541251095805</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.90897</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>340.226</v>
       </c>
       <c r="E9" t="n">
-        <v>0.54481</v>
+        <v>0.5448089600000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02584</v>
+        <v>0.0258413</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00431</v>
+        <v>0.004306940000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24365</v>
+        <v>0.24364626</v>
       </c>
       <c r="I9" t="n">
+        <v>15.81117777666707</v>
+      </c>
+      <c r="J9" t="n">
+        <v>94.78097800499405</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1944558111631242</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.008418955120479101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.001403227469465348</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1022634210398711</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15.79536</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>44.392</v>
+        <v>34.936</v>
       </c>
       <c r="D10" t="n">
-        <v>354.538</v>
+        <v>279.444</v>
       </c>
       <c r="E10" t="n">
-        <v>0.53812</v>
+        <v>0.65603296</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02746</v>
+        <v>0.15256754</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00343</v>
+        <v>0.01907088</v>
       </c>
       <c r="H10" t="n">
-        <v>0.15099</v>
+        <v>0.66530704</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>8.702607353517623</v>
       </c>
       <c r="J10" t="n">
-        <v>14.27089</v>
+        <v>69.62486702476662</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.25934858865572</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01053728831523922</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.001317214688146673</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1674058303647714</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>34.936</v>
+        <v>44.392</v>
       </c>
       <c r="D11" t="n">
-        <v>279.444</v>
+        <v>354.538</v>
       </c>
       <c r="E11" t="n">
-        <v>0.65603</v>
+        <v>0.5381165600000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15257</v>
+        <v>0.0274612</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01907</v>
+        <v>0.00343254</v>
       </c>
       <c r="H11" t="n">
-        <v>0.66531</v>
+        <v>0.15098592</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>14.28518354582383</v>
       </c>
       <c r="J11" t="n">
-        <v>8.693899999999999</v>
+        <v>114.1176332757076</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.21722963059164</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01119122703214308</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.00139881647239618</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0775893894735056</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>292.426</v>
       </c>
       <c r="E12" t="n">
-        <v>0.65999</v>
+        <v>0.6599942800000002</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18216</v>
+        <v>0.18216406</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01822</v>
+        <v>0.0182164</v>
       </c>
       <c r="H12" t="n">
-        <v>0.52928</v>
+        <v>0.5292801400000001</v>
       </c>
       <c r="I12" t="n">
+        <v>7.880716680022291</v>
+      </c>
+      <c r="J12" t="n">
+        <v>78.7595496261541</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4063990917667746</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.02434057779863787</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.002434139665636228</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1426137234027146</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.87283</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>345.352</v>
       </c>
       <c r="E13" t="n">
-        <v>0.58323</v>
+        <v>0.5832312000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02766</v>
+        <v>0.0276596</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00277</v>
+        <v>0.0027658</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09508</v>
+        <v>0.09507578000000001</v>
       </c>
       <c r="I13" t="n">
+        <v>12.60610581454936</v>
+      </c>
+      <c r="J13" t="n">
+        <v>125.8041074165934</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.302567425215874</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01193070595266928</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.001193086447220436</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05407955028946359</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12.59349</v>
       </c>
     </row>
   </sheetData>

--- a/results/ff_default/15x15/ff_default_15x15_True_2_500.xlsx
+++ b/results/ff_default/15x15/ff_default_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
